--- a/interface.xlsx
+++ b/interface.xlsx
@@ -12,54 +12,331 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
   <si>
     <t>表格 1</t>
   </si>
   <si>
     <r>
       <rPr>
-        <b val="1"/>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="8"/>
+        <color indexed="14"/>
         <rFont val="Helvetica"/>
       </rPr>
-      <t>http://api.miaopai.com/m/v2relation/fans.json?f_type=v2&amp;os=ios&amp;page=1&amp;per=20&amp;suid=Bsdg3iSXZML1T1aR&amp;timestamp=1470799301390&amp;token=Aa3As~EnntwDQNn-GL846hEwFvec7Xvh&amp;unique_id=c4a008930de47b54390748ceb7c0211c2592152549&amp;uuid=c4a008930de47b54390748ceb7c0211c2592152549&amp;vend=miaopai&amp;version=6.5.8</t>
+      <t>http://api.miaopai.com/m/v6_hot_channel.json?extend=1&amp;lastid=0&amp;lasttime=0&amp;os=ios&amp;page=1&amp;per=20&amp;refresh=0&amp;sinaad=1&amp;timestamp=1480557525167&amp;token=Aa3As~EnntwDQNn-GL846hEwFvec7Xvh&amp;unique_id=dc88d0e583c9b5666d68ab3d704d452b315399910&amp;uuid=dc88d0e583c9b5666d68ab3d704d452b315399910&amp;vend=miaopai&amp;version=6.6.10</t>
     </r>
   </si>
   <si>
-    <t>粉丝</t>
+    <t>热门</t>
   </si>
   <si>
     <r>
       <rPr>
-        <b val="1"/>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="8"/>
+        <color indexed="14"/>
         <rFont val="Helvetica"/>
       </rPr>
-      <t>http://api.miaopai.com/m/v2relation/follow.json?f_type=v2&amp;os=ios&amp;page=1&amp;per=20&amp;suid=Bsdg3iSXZML1T1aR&amp;timestamp=1470799301955&amp;token=Aa3As~EnntwDQNn-GL846hEwFvec7Xvh&amp;unique_id=c4a008930de47b54390748ceb7c0211c2592152549&amp;uuid=c4a008930de47b54390748ceb7c0211c2592152549&amp;vend=miaopai&amp;version=6.5.8</t>
+      <t>http://api.miaopai.com/m/v4_remind.json?os=ios&amp;timestamp=1480557524437&amp;token=Aa3As~EnntwDQNn-GL846hEwFvec7Xvh&amp;unique_id=dc88d0e583c9b5666d68ab3d704d452b315399910&amp;uuid=dc88d0e583c9b5666d68ab3d704d452b315399910&amp;vend=miaopai&amp;version=6.6.10</t>
     </r>
   </si>
   <si>
-    <t>关注</t>
+    <t>配置</t>
   </si>
   <si>
     <r>
       <rPr>
-        <b val="1"/>
         <u val="single"/>
         <sz val="10"/>
-        <color indexed="8"/>
+        <color indexed="14"/>
         <rFont val="Helvetica"/>
       </rPr>
-      <t>http://api.miaopai.com/m/v6_hot_channel.json?deviceId=e3ffe3a4-0dc9-36ba-932d-b9919fbf0c7d&amp;vend=miaopai&amp;token=MdP6czc9234jnk0c51fj2QvlvAmmQnc6&amp;uuid=e3ffe3a4-0dc9-36ba-932d-b9919fbf0c7d&amp;refresh=1&amp;sinaad=1&amp;timestamp=1470796090165&amp;pname=com.yixia.videoeditor&amp;os=android&amp;version=6.5.8&amp;unique_id=e3ffe3a4-0dc9-36ba-932d-b9919fbf0c7d&amp;udid=e3ffe3a4-0dc9-36ba-932d-b9919fbf0c7d&amp;channel=yixia&amp;page=1&amp;per=20</t>
+      <t>http://api.miaopai.com/m/index_cate.json?os=ios&amp;timestamp=1480557524777&amp;token=Aa3As~EnntwDQNn-GL846hEwFvec7Xvh&amp;unique_id=dc88d0e583c9b5666d68ab3d704d452b315399910&amp;uuid=dc88d0e583c9b5666d68ab3d704d452b315399910&amp;vend=miaopai&amp;version=6.6.10</t>
     </r>
   </si>
   <si>
-    <t>热门</t>
+    <t>频道列表</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="14"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>http://api.miaopai.com/m/v4_feed.json?f_type=v2&amp;hide_sub=1&amp;nick=LionalW&amp;os=ios&amp;per=20&amp;recommend_user=1&amp;sub_topic=0&amp;suid=Bsdg3iSXZML1T1aR&amp;timestamp=1480557994970&amp;token=Aa3As~EnntwDQNn-GL846hEwFvec7Xvh&amp;unique_id=dc88d0e583c9b5666d68ab3d704d452b315399910&amp;uuid=dc88d0e583c9b5666d68ab3d704d452b315399910&amp;vend=miaopai&amp;version=6.6.10</t>
+    </r>
+  </si>
+  <si>
+    <t>关注</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="14"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>http://api.miaopai.com/m/cate2_channel.json?cateid=136&amp;columns=1&amp;extend=1&amp;os=ios&amp;page=1&amp;per=20&amp;timestamp=1480558037535&amp;token=Aa3As~EnntwDQNn-GL846hEwFvec7Xvh&amp;type=news&amp;unique_id=dc88d0e583c9b5666d68ab3d704d452b315399910&amp;uuid=dc88d0e583c9b5666d68ab3d704d452b315399910&amp;vend=miaopai&amp;version=6.6.10</t>
+    </r>
+  </si>
+  <si>
+    <t>现场</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="14"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>http://api.miaopai.com/m/discovery_page_collections.json?channels=1&amp;os=ios&amp;page=1&amp;per=10&amp;timestamp=1480558072337&amp;token=Aa3As~EnntwDQNn-GL846hEwFvec7Xvh&amp;unique_id=dc88d0e583c9b5666d68ab3d704d452b315399910&amp;uuid=dc88d0e583c9b5666d68ab3d704d452b315399910&amp;vend=miaopai&amp;version=6.6.10</t>
+    </r>
+  </si>
+  <si>
+    <t>发现页合辑</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="14"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>http://api.miaopai.com/m/discovery_summary.json?os=ios&amp;timestamp=1480558072360&amp;token=Aa3As~EnntwDQNn-GL846hEwFvec7Xvh&amp;unique_id=dc88d0e583c9b5666d68ab3d704d452b315399910&amp;uuid=dc88d0e583c9b5666d68ab3d704d452b315399910&amp;vend=miaopai&amp;version=6.6.10</t>
+    </r>
+  </si>
+  <si>
+    <t>发现页banner</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="14"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>http://api.miaopai.com/m/discovery_topic.json?os=ios&amp;page=1&amp;per=20&amp;timestamp=1480558072352&amp;token=Aa3As~EnntwDQNn-GL846hEwFvec7Xvh&amp;unique_id=dc88d0e583c9b5666d68ab3d704d452b315399910&amp;uuid=dc88d0e583c9b5666d68ab3d704d452b315399910&amp;vend=miaopai&amp;version=6.6.10</t>
+    </r>
+  </si>
+  <si>
+    <t>发现页话题</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="14"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>http://api.miaopai.com/m/discovery_page_collections.json?channels=1&amp;os=ios&amp;page=1&amp;per=10&amp;timestamp=1480558273825&amp;token=Aa3As~EnntwDQNn-GL846hEwFvec7Xvh&amp;unique_id=dc88d0e583c9b5666d68ab3d704d452b315399910&amp;uuid=dc88d0e583c9b5666d68ab3d704d452b315399910&amp;vend=miaopai&amp;version=6.6.10</t>
+    </r>
+  </si>
+  <si>
+    <t>合辑列表</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="14"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>http://api.miaopai.com/m/v2_userinfo.json?extend=1&amp;f_type=v2&amp;os=ios&amp;suid=Bsdg3iSXZML1T1aR&amp;timestamp=1480558322000&amp;token=Aa3As~EnntwDQNn-GL846hEwFvec7Xvh&amp;unique_id=dc88d0e583c9b5666d68ab3d704d452b315399910&amp;uuid=dc88d0e583c9b5666d68ab3d704d452b315399910&amp;vend=miaopai&amp;version=6.6.10</t>
+    </r>
+  </si>
+  <si>
+    <t>我的页面</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="14"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>http://api.miaopai.com/m/channel_forward_reward.json?live=1&amp;os=ios&amp;suid=Bsdg3iSXZML1T1aR&amp;timeflag=0&amp;timestamp=1480558353548&amp;token=Aa3As~EnntwDQNn-GL846hEwFvec7Xvh&amp;unique_id=dc88d0e583c9b5666d68ab3d704d452b315399910&amp;uuid=dc88d0e583c9b5666d68ab3d704d452b315399910&amp;vend=miaopai&amp;version=6.6.10</t>
+    </r>
+  </si>
+  <si>
+    <t>个人主页视频流</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="14"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>http://api.miaopai.com/m/space_user_info.json?f_type=v2&amp;os=ios&amp;suid=Bsdg3iSXZML1T1aR&amp;timestamp=1480558353569&amp;token=Aa3As~EnntwDQNn-GL846hEwFvec7Xvh&amp;unique_id=dc88d0e583c9b5666d68ab3d704d452b315399910&amp;uuid=dc88d0e583c9b5666d68ab3d704d452b315399910&amp;vend=miaopai&amp;version=6.6.10</t>
+    </r>
+  </si>
+  <si>
+    <t>个人主页信息</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="14"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>http://api.miaopai.com/m/v2relation/follow.json?f_type=v2&amp;os=ios&amp;page=1&amp;per=20&amp;suid=Bsdg3iSXZML1T1aR&amp;timestamp=1480558438823&amp;token=Aa3As~EnntwDQNn-GL846hEwFvec7Xvh&amp;unique_id=dc88d0e583c9b5666d68ab3d704d452b315399910&amp;uuid=dc88d0e583c9b5666d68ab3d704d452b315399910&amp;vend=miaopai&amp;version=6.6.10</t>
+    </r>
+  </si>
+  <si>
+    <t>关注列表</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="14"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>http://api.miaopai.com/m/v2relation/fans.json?f_type=v2&amp;os=ios&amp;page=1&amp;per=20&amp;suid=Bsdg3iSXZML1T1aR&amp;timestamp=1480558481606&amp;token=Aa3As~EnntwDQNn-GL846hEwFvec7Xvh&amp;unique_id=dc88d0e583c9b5666d68ab3d704d452b315399910&amp;uuid=dc88d0e583c9b5666d68ab3d704d452b315399910&amp;vend=miaopai&amp;version=6.6.10</t>
+    </r>
+  </si>
+  <si>
+    <t>粉丝列表</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="14"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>http://api.miaopai.com/m/push_list_today.json?os=ios&amp;timestamp=1480558552349&amp;token=Aa3As~EnntwDQNn-GL846hEwFvec7Xvh&amp;unique_id=dc88d0e583c9b5666d68ab3d704d452b315399910&amp;uuid=dc88d0e583c9b5666d68ab3d704d452b315399910&amp;vend=miaopai&amp;version=6.6.10</t>
+    </r>
+  </si>
+  <si>
+    <t>今日推送</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="14"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>http://api.miaopai.com/m/liked_video.json?likeStat=0&amp;os=ios&amp;page=1&amp;per=20&amp;suid=Bsdg3iSXZML1T1aR&amp;timestamp=1480558578014&amp;token=Aa3As~EnntwDQNn-GL846hEwFvec7Xvh&amp;unique_id=dc88d0e583c9b5666d68ab3d704d452b315399910&amp;uuid=dc88d0e583c9b5666d68ab3d704d452b315399910&amp;vend=miaopai&amp;version=6.6.10</t>
+    </r>
+  </si>
+  <si>
+    <t>赞过的视频</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="14"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>http://api.miaopai.com/m/follow-topic.json?os=ios&amp;page=1&amp;per=20&amp;timestamp=1480558626168&amp;token=Aa3As~EnntwDQNn-GL846hEwFvec7Xvh&amp;unique_id=dc88d0e583c9b5666d68ab3d704d452b315399910&amp;uuid=dc88d0e583c9b5666d68ab3d704d452b315399910&amp;vend=miaopai&amp;version=6.6.10</t>
+    </r>
+  </si>
+  <si>
+    <t>关注的话题</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="14"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>http://api.miaopai.com/m/myBalance.json?os=ios&amp;timestamp=1480558662778&amp;token=Aa3As~EnntwDQNn-GL846hEwFvec7Xvh&amp;unique_id=dc88d0e583c9b5666d68ab3d704d452b315399910&amp;uuid=dc88d0e583c9b5666d68ab3d704d452b315399910&amp;vend=miaopai&amp;version=6.6.10</t>
+    </r>
+  </si>
+  <si>
+    <t>余额</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="14"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>http://api.miaopai.com/m/myAccountHistory.json?os=ios&amp;pageIndex=1&amp;pageSize=10&amp;timestamp=1480558662817&amp;token=Aa3As~EnntwDQNn-GL846hEwFvec7Xvh&amp;type=income&amp;unique_id=dc88d0e583c9b5666d68ab3d704d452b315399910&amp;uuid=dc88d0e583c9b5666d68ab3d704d452b315399910&amp;vend=miaopai&amp;version=6.6.10</t>
+    </r>
+  </si>
+  <si>
+    <t>收到的红包</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="14"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>http://api.miaopai.com/m/myAccountHistory.json?os=ios&amp;pageIndex=1&amp;pageSize=10&amp;timestamp=1480558662827&amp;token=Aa3As~EnntwDQNn-GL846hEwFvec7Xvh&amp;type=disburse&amp;unique_id=dc88d0e583c9b5666d68ab3d704d452b315399910&amp;uuid=dc88d0e583c9b5666d68ab3d704d452b315399910&amp;vend=miaopai&amp;version=6.6.10</t>
+    </r>
+  </si>
+  <si>
+    <t>发出的红包</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="14"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>http://api.miaopai.com/m/myAccountHistory.json?os=ios&amp;pageIndex=1&amp;pageSize=10&amp;timestamp=1480558662834&amp;token=Aa3As~EnntwDQNn-GL846hEwFvec7Xvh&amp;type=withdraw&amp;unique_id=dc88d0e583c9b5666d68ab3d704d452b315399910&amp;uuid=dc88d0e583c9b5666d68ab3d704d452b315399910&amp;vend=miaopai&amp;version=6.6.10</t>
+    </r>
+  </si>
+  <si>
+    <t>提现记录</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="14"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>http://api.miaopai.com/m/getRewardList.json?orderType=2&amp;os=ios&amp;pageIndex=1&amp;pageSize=10&amp;raiserUid=true&amp;timestamp=1480558833939&amp;token=Aa3As~EnntwDQNn-GL846hEwFvec7Xvh&amp;unique_id=dc88d0e583c9b5666d68ab3d704d452b315399910&amp;uuid=dc88d0e583c9b5666d68ab3d704d452b315399910&amp;vend=miaopai&amp;version=6.6.10</t>
+    </r>
+  </si>
+  <si>
+    <t>我发起的悬赏</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="14"/>
+        <rFont val="Helvetica"/>
+      </rPr>
+      <t>http://api.miaopai.com/m/getRewardList.json?joinerUid=true&amp;orderType=2&amp;os=ios&amp;pageIndex=1&amp;pageSize=10&amp;timestamp=1480558840369&amp;token=Aa3As~EnntwDQNn-GL846hEwFvec7Xvh&amp;unique_id=dc88d0e583c9b5666d68ab3d704d452b315399910&amp;uuid=dc88d0e583c9b5666d68ab3d704d452b315399910&amp;vend=miaopai&amp;version=6.6.10</t>
+    </r>
+  </si>
+  <si>
+    <t>我参与的悬赏</t>
   </si>
 </sst>
 </file>
@@ -86,14 +363,13 @@
       <name val="Helvetica"/>
     </font>
     <font>
-      <b val="1"/>
+      <u val="single"/>
       <sz val="10"/>
-      <color indexed="8"/>
+      <color indexed="14"/>
       <name val="Helvetica"/>
     </font>
     <font>
       <b val="1"/>
-      <u val="single"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
@@ -169,66 +445,6 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="11"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="11"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
         <color indexed="13"/>
       </right>
       <top style="thin">
@@ -269,13 +485,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="13"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="13"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="13"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -291,34 +567,46 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -343,6 +631,7 @@
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="fffefefe"/>
       <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ff0000ff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1437,7 +1726,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1464,221 +1753,449 @@
       <c r="F1" s="3"/>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" ht="68.55" customHeight="1">
+    <row r="2" ht="92.35" customHeight="1">
       <c r="A2" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="5">
+      <c r="B2" t="s" s="6">
         <v>2</v>
       </c>
-      <c r="C2" s="6">
-        <v>5</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
+      <c r="C2" s="7">
+        <v>15</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
     </row>
     <row r="3" ht="68.55" customHeight="1">
-      <c r="A3" t="s" s="7">
+      <c r="A3" t="s" s="8">
         <v>3</v>
       </c>
       <c r="B3" t="s" s="8">
         <v>4</v>
       </c>
-      <c r="C3" s="9">
-        <v>5</v>
+      <c r="C3" s="7">
+        <v>15</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" ht="92.35" customHeight="1">
-      <c r="A4" t="s" s="10">
+    <row r="4" ht="68.55" customHeight="1">
+      <c r="A4" t="s" s="8">
         <v>5</v>
       </c>
-      <c r="B4" t="s" s="11">
+      <c r="B4" t="s" s="8">
         <v>6</v>
       </c>
-      <c r="C4" s="12">
-        <v>5</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-    </row>
-    <row r="5" ht="20.35" customHeight="1">
-      <c r="A5" s="13"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-    </row>
-    <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" s="13"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-    </row>
-    <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-    </row>
-    <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-    </row>
-    <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-    </row>
-    <row r="11" ht="20.35" customHeight="1">
-      <c r="A11" s="13"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-    </row>
-    <row r="12" ht="20.35" customHeight="1">
-      <c r="A12" s="13"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="12"/>
-    </row>
-    <row r="13" ht="20.35" customHeight="1">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-    </row>
-    <row r="14" ht="20.35" customHeight="1">
-      <c r="A14" s="13"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-    </row>
-    <row r="15" ht="20.35" customHeight="1">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-    </row>
-    <row r="16" ht="20.35" customHeight="1">
-      <c r="A16" s="13"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-    </row>
-    <row r="17" ht="20.35" customHeight="1">
-      <c r="A17" s="13"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-    </row>
-    <row r="18" ht="20.35" customHeight="1">
-      <c r="A18" s="13"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-    </row>
-    <row r="19" ht="20.35" customHeight="1">
-      <c r="A19" s="13"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="12"/>
-    </row>
-    <row r="20" ht="20.35" customHeight="1">
-      <c r="A20" s="13"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12"/>
-    </row>
-    <row r="21" ht="20.35" customHeight="1">
-      <c r="A21" s="13"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="12"/>
-    </row>
-    <row r="22" ht="20.35" customHeight="1">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-    </row>
-    <row r="23" ht="20.35" customHeight="1">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12"/>
+      <c r="C4" s="7">
+        <v>15</v>
+      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" ht="68.55" customHeight="1">
+      <c r="A5" t="s" s="8">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s" s="8">
+        <v>8</v>
+      </c>
+      <c r="C5" s="7">
+        <v>15</v>
+      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" ht="68.55" customHeight="1">
+      <c r="A6" t="s" s="8">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s" s="8">
+        <v>10</v>
+      </c>
+      <c r="C6" s="7">
+        <v>15</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" ht="68.55" customHeight="1">
+      <c r="A7" t="s" s="10">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s" s="8">
+        <v>12</v>
+      </c>
+      <c r="C7" s="7">
+        <v>15</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+    </row>
+    <row r="8" ht="68.55" customHeight="1">
+      <c r="A8" t="s" s="11">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s" s="8">
+        <v>14</v>
+      </c>
+      <c r="C8" s="7">
+        <v>15</v>
+      </c>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+    </row>
+    <row r="9" ht="68.55" customHeight="1">
+      <c r="A9" t="s" s="8">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s" s="8">
+        <v>16</v>
+      </c>
+      <c r="C9" s="7">
+        <v>15</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+    </row>
+    <row r="10" ht="68.55" customHeight="1">
+      <c r="A10" t="s" s="8">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s" s="8">
+        <v>18</v>
+      </c>
+      <c r="C10" s="7">
+        <v>15</v>
+      </c>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" ht="68.55" customHeight="1">
+      <c r="A11" t="s" s="8">
+        <v>19</v>
+      </c>
+      <c r="B11" t="s" s="8">
+        <v>20</v>
+      </c>
+      <c r="C11" s="7">
+        <v>15</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" ht="68.55" customHeight="1">
+      <c r="A12" t="s" s="8">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s" s="8">
+        <v>22</v>
+      </c>
+      <c r="C12" s="7">
+        <v>15</v>
+      </c>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" ht="68.55" customHeight="1">
+      <c r="A13" t="s" s="10">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s" s="8">
+        <v>24</v>
+      </c>
+      <c r="C13" s="7">
+        <v>15</v>
+      </c>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" ht="68.55" customHeight="1">
+      <c r="A14" t="s" s="11">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s" s="8">
+        <v>26</v>
+      </c>
+      <c r="C14" s="7">
+        <v>15</v>
+      </c>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+    </row>
+    <row r="15" ht="68.55" customHeight="1">
+      <c r="A15" t="s" s="10">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="C15" s="12">
+        <v>15</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+    </row>
+    <row r="16" ht="68.55" customHeight="1">
+      <c r="A16" t="s" s="14">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s" s="15">
+        <v>30</v>
+      </c>
+      <c r="C16" s="16">
+        <v>15</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+    </row>
+    <row r="17" ht="63" customHeight="1">
+      <c r="A17" t="s" s="5">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s" s="6">
+        <v>32</v>
+      </c>
+      <c r="C17" s="7">
+        <v>15</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" ht="51" customHeight="1">
+      <c r="A18" t="s" s="5">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s" s="6">
+        <v>34</v>
+      </c>
+      <c r="C18" s="7">
+        <v>15</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" ht="51" customHeight="1">
+      <c r="A19" t="s" s="5">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s" s="6">
+        <v>36</v>
+      </c>
+      <c r="C19" s="7">
+        <v>15</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" ht="51" customHeight="1">
+      <c r="A20" t="s" s="5">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s" s="6">
+        <v>38</v>
+      </c>
+      <c r="C20" s="7">
+        <v>15</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+    </row>
+    <row r="21" ht="51" customHeight="1">
+      <c r="A21" t="s" s="5">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s" s="6">
+        <v>40</v>
+      </c>
+      <c r="C21" s="7">
+        <v>15</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+    </row>
+    <row r="22" ht="51.95" customHeight="1">
+      <c r="A22" t="s" s="5">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s" s="6">
+        <v>42</v>
+      </c>
+      <c r="C22" s="7">
+        <v>15</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+    </row>
+    <row r="23" ht="63" customHeight="1">
+      <c r="A23" t="s" s="5">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s" s="6">
+        <v>44</v>
+      </c>
+      <c r="C23" s="7">
+        <v>15</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+    </row>
+    <row r="24" ht="63" customHeight="1">
+      <c r="A24" t="s" s="5">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s" s="6">
+        <v>46</v>
+      </c>
+      <c r="C24" s="7">
+        <v>15</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+    </row>
+    <row r="25" ht="20.35" customHeight="1">
+      <c r="A25" s="17"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" ht="20.35" customHeight="1">
+      <c r="A26" s="17"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+    </row>
+    <row r="27" ht="20.35" customHeight="1">
+      <c r="A27" s="17"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+    </row>
+    <row r="28" ht="20.35" customHeight="1">
+      <c r="A28" s="17"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+    </row>
+    <row r="29" ht="20.35" customHeight="1">
+      <c r="A29" s="17"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+    </row>
+    <row r="30" ht="20.35" customHeight="1">
+      <c r="A30" s="17"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+    </row>
+    <row r="31" ht="20.35" customHeight="1">
+      <c r="A31" s="17"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+    </row>
+    <row r="32" ht="20.35" customHeight="1">
+      <c r="A32" s="17"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" ht="20.35" customHeight="1">
+      <c r="A33" s="17"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" ht="20.35" customHeight="1">
+      <c r="A34" s="17"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" ht="20.35" customHeight="1">
+      <c r="A35" s="17"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1688,6 +2205,26 @@
     <hyperlink ref="A2" r:id="rId1" location="" tooltip="" display=""/>
     <hyperlink ref="A3" r:id="rId2" location="" tooltip="" display=""/>
     <hyperlink ref="A4" r:id="rId3" location="" tooltip="" display=""/>
+    <hyperlink ref="A5" r:id="rId4" location="" tooltip="" display=""/>
+    <hyperlink ref="A6" r:id="rId5" location="" tooltip="" display=""/>
+    <hyperlink ref="A7" r:id="rId6" location="" tooltip="" display=""/>
+    <hyperlink ref="A8" r:id="rId7" location="" tooltip="" display=""/>
+    <hyperlink ref="A9" r:id="rId8" location="" tooltip="" display=""/>
+    <hyperlink ref="A10" r:id="rId9" location="" tooltip="" display=""/>
+    <hyperlink ref="A11" r:id="rId10" location="" tooltip="" display=""/>
+    <hyperlink ref="A12" r:id="rId11" location="" tooltip="" display=""/>
+    <hyperlink ref="A13" r:id="rId12" location="" tooltip="" display=""/>
+    <hyperlink ref="A14" r:id="rId13" location="" tooltip="" display=""/>
+    <hyperlink ref="A15" r:id="rId14" location="" tooltip="" display=""/>
+    <hyperlink ref="A16" r:id="rId15" location="" tooltip="" display=""/>
+    <hyperlink ref="A17" r:id="rId16" location="" tooltip="" display=""/>
+    <hyperlink ref="A18" r:id="rId17" location="" tooltip="" display=""/>
+    <hyperlink ref="A19" r:id="rId18" location="" tooltip="" display=""/>
+    <hyperlink ref="A20" r:id="rId19" location="" tooltip="" display=""/>
+    <hyperlink ref="A21" r:id="rId20" location="" tooltip="" display=""/>
+    <hyperlink ref="A22" r:id="rId21" location="" tooltip="" display=""/>
+    <hyperlink ref="A23" r:id="rId22" location="" tooltip="" display=""/>
+    <hyperlink ref="A24" r:id="rId23" location="" tooltip="" display=""/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
